--- a/Data/SampleData.xlsx
+++ b/Data/SampleData.xlsx
@@ -556,7 +556,7 @@
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11.5" customWidth="1" style="2" min="1" max="1"/>
     <col width="8.6640625" customWidth="1" style="2" min="2" max="2"/>
